--- a/potential.xlsx
+++ b/potential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Documents\carbon-removal-technologies-potential-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4677913-4BC5-40EE-A4E6-9437EEA0AA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089B036-9B46-4E0B-BF63-1179B33FB490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21615" yWindow="1920" windowWidth="39255" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="3165" windowWidth="38385" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="potential" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">potential!$A$1:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jIFeMMD+xnR37SAd12BKo3PzTtneqEGsrwEHu/O4p3U="/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>tech</t>
   </si>
@@ -72,9 +83,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>Enhanced Weathering</t>
-  </si>
-  <si>
     <t>Ocean Fertilization</t>
   </si>
   <si>
@@ -148,17 +156,82 @@
   </si>
   <si>
     <t>Mulligan 2020</t>
+  </si>
+  <si>
+    <t>Enhanced Mineralization</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>BECCS</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Fajardy 2017</t>
+  </si>
+  <si>
+    <t>Muratori 2016</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>Beringer 2011</t>
+  </si>
+  <si>
+    <t>Rogner 2012</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Krey 2014</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Cornelissen 2012</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>Brack 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,9 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,11 +317,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C20" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:D20" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tech" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="potential" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{27F38C29-2F80-463F-9E16-2DE7F132C858}" name="Column1" dataCellStyle="Normal" totalsRowCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="potential-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -449,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C994"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -463,7 +540,7 @@
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +550,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -482,10 +562,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -493,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -504,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -518,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -529,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -540,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -551,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -562,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -570,10 +650,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -581,218 +661,326 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/potential.xlsx
+++ b/potential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Documents\carbon-removal-technologies-potential-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089B036-9B46-4E0B-BF63-1179B33FB490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBB887-AA7D-4640-BB3E-5A15F42B620A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3165" windowWidth="38385" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="990" windowWidth="27000" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="potential" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>tech</t>
   </si>
@@ -207,17 +207,33 @@
   </si>
   <si>
     <t>Brack 2020</t>
+  </si>
+  <si>
+    <t>Hanssen 2020</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Pour 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,12 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +546,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -972,8 +989,28 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/potential.xlsx
+++ b/potential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Documents\carbon-removal-technologies-potential-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBB887-AA7D-4640-BB3E-5A15F42B620A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C683571-EF52-4554-B996-9C2671C4904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="990" windowWidth="27000" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20805" yWindow="1770" windowWidth="27000" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="potential" sheetId="1" r:id="rId1"/>
